--- a/comments.xlsx
+++ b/comments.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,257 +471,257 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BHhl75a5bks</t>
+          <t>wExrFbaz-Z4</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-01-29T14:34:46Z</t>
+          <t>2020-11-28T01:30:04Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ugw5ej-XdiFL40uu9814AaABAg</t>
+          <t>UgyRkv0Lh6dvSfjUBkh4AaABAg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>හැමදාම unea ඔහොම තමා</t>
+          <t>Applecare warranty එක තියෙන phone විකුනන හැම seller කෙනෙක්ටම apple authority එක තියෙනවාද 🤔🤔🤔🤔</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>UCh3O7jnH1dspTmxbkW4K6yA</t>
+          <t>UCgPNm2FnKQJbIq8WIzkYpdg</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ශ්‍රී ලංකා ක්‍රිකට් තවත් කැපිල්ලක්..</t>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2021-01-30T16:12:28Z</t>
+          <t>2021-02-16T16:25:41Z</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2021-01-30T16:12:28Z</t>
+          <t>2021-02-16T16:25:41Z</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BHhl75a5bks</t>
+          <t>wExrFbaz-Z4</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-01-29T14:34:46Z</t>
+          <t>2020-11-28T01:30:04Z</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>UgyWfbG2dV7TCXe3JFR4AaABAg</t>
+          <t>UgxOTQ9aRrsWhsqSGAl4AaABAg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>මෙල්ගෙන් ඇහුවනම් කියයි" ෆෝම් එක වෙනයි ක්ලාස් එක වෙනයි කියල"</t>
+          <t>මම ඔයාගෙ ෆැන් කෙනෙක්.මම (Dharma ධර්ම ) Youtube Channel එක කරනවා.මට මුදල් හදිස්සියකට මගෙ දුරකථන විකුණනවා.මගෙ Channel එක ඔයගෙ channel එක තරම් ලොකු එකක් නෙවෙයි.බොහොම පොඩි එකක්.මම Channel එක කරන්නෙ දුරකථනයෙන්.එක විකුනුවට පසු මට විඩියො කරන්න විදියක් නැහැ.පුලුවන් නම් උදව්වක් කරන්න.මේක ඉල්ලීමක් විතරයි.මම කරන්නේ ධර්ම දානමය පිනක්.දුරකථනයක් ලබාගැනීමට සහය වන්න.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>UCG6cJF3xw23cZhjW1EcsB6Q</t>
+          <t>UCsxeWNZ5K3Ygbz5fYL2Wj5w</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ශ්‍රී ලංකා ක්‍රිකට් තවත් කැපිල්ලක්..</t>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2021-01-30T15:41:58Z</t>
+          <t>2021-01-19T18:19:42Z</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2021-01-30T15:41:58Z</t>
+          <t>2021-01-19T18:19:42Z</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BHhl75a5bks</t>
+          <t>wExrFbaz-Z4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-01-29T14:34:46Z</t>
+          <t>2020-11-28T01:30:04Z</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>UgxgZPVRvPhTX_SyDEx4AaABAg</t>
+          <t>Ugy-Nq8fibGriNzCba94AaABAg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ලහිරු inn ඕනේ</t>
+          <t>මේක රටින් ගෙන්නුව්ම මීට වඩා මිල අඩුද</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>UCAFA18g_LE_Viv1C4CI61KA</t>
+          <t>UCbNpVq9zfiI1RuKAIMcAsKg</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ශ්‍රී ලංකා ක්‍රිකට් තවත් කැපිල්ලක්..</t>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2021-01-30T03:14:13Z</t>
+          <t>2020-12-04T18:34:52Z</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2021-01-30T03:14:13Z</t>
+          <t>2020-12-04T18:34:52Z</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BHhl75a5bks</t>
+          <t>wExrFbaz-Z4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-01-29T14:34:46Z</t>
+          <t>2020-11-28T01:30:04Z</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>UgxOgXYt6GoirFJvpul4AaABAg</t>
+          <t>UgxIb5vlo3Vq8I5sMOZ4AaABAg</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>මුන්ට අවස්ත දුන්නට ප්‍රෙරෙයෝජන ගන් නැහැ එකනේ වැඩේ අන්තිම එකට ගත්ත එක දැක්කනේ ඉනින් දේකේම කරපු දේ වේන රටවල නවකයින් ටිම් එකට අවම අඩුම පනහක් හරි ගහනවා මුන් සින්ගල් එක ගහන්න බැ</t>
+          <t>අයියෙ අපිට apple.com එකෙන් ඕඩර් කරන්ඩ පුලුවන්ද...ඇපල් ඕනෙම ප්‍රොඩක්ට් එකක්...</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>UC3aUVW3WzqxeyOAHKFOJzkA</t>
+          <t>UCu-6X9tL8jnKQYj-cTL7Kqw</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ශ්‍රී ලංකා ක්‍රිකට් තවත් කැපිල්ලක්..</t>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2021-01-30T03:12:52Z</t>
+          <t>2020-12-04T18:17:59Z</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2021-01-30T03:12:52Z</t>
+          <t>2020-12-04T18:17:59Z</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BHhl75a5bks</t>
+          <t>wExrFbaz-Z4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-01-29T14:34:46Z</t>
+          <t>2020-11-28T01:30:04Z</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>UgygStvsNQ5sAtviBnl4AaABAg</t>
+          <t>Ugyc_Sap4XkIPRY9xs54AaABAg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>අර්ජුන කීවෙ හොඳම 11 නෙමෙ, ගහන්නේ කියලා තව මොනාද</t>
+          <t>12 mini 🧡</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>UCnbEy1mxIKsaoHk8WqrXRgw</t>
+          <t>UCPv2N-2GvxdfaVoxteWZwIw</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ශ්‍රී ලංකා ක්‍රිකට් තවත් කැපිල්ලක්..</t>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2021-01-29T18:07:51Z</t>
+          <t>2020-12-02T10:38:03Z</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2021-01-29T18:07:51Z</t>
+          <t>2020-12-02T10:38:03Z</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BHhl75a5bks</t>
+          <t>wExrFbaz-Z4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-01-29T14:34:46Z</t>
+          <t>2020-11-28T01:30:04Z</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>UgwHcoXISDUtdf8b7YR4AaABAg</t>
+          <t>Ugx-NMF9e-48Yscmn014AaABAg</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>වැඩක් නෑ කොච්චර වැඩ්ඩෙක් වුනත් ඇට අතගාන්න දන්නෙ නැතිලු</t>
+          <t>ඔය හීනෙ කවද හැබැ වෙයිද දන්නෙ නැ</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>UC6phRuKI4W8bSsQ3SuAsIIA</t>
+          <t>UCzPamNYDaUTjizJxUZ3FVtw</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ශ්‍රී ලංකා ක්‍රිකට් තවත් කැපිල්ලක්..</t>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -729,240 +729,6141 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2021-01-29T16:40:15Z</t>
+          <t>2020-12-01T12:44:04Z</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2021-01-29T16:40:15Z</t>
+          <t>2020-12-01T12:44:04Z</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BHhl75a5bks</t>
+          <t>wExrFbaz-Z4</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-01-29T14:34:46Z</t>
+          <t>2020-11-28T01:30:04Z</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ugy41He-E7NJsT2dfDl4AaABAg</t>
+          <t>Ugz0Ttg2dv_54NfIDLF4AaABAg</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>මෙන්ඩා මේ කාලේ දක්ශතා අතර නැති උනාට පොර form 1 ඉන්න කොට score board presure 1 අඩු වෙන්නෙ පට පට ගාලා..... ඒ හින්දා මෙන්ඩා ආයේ track 1ට දාගන්න ඕන......
-එතකං teem 1න් කපලා වෙන කෙනෙක්ට chance 1 දීලා, මෙන්ඩව වෙනම අරගෙන out වෙන්න හේතුව හොයලා, ඒක හදලා ආයේ chance 1 ක් දීලා බලන්න ඕන......
-මෙන්ඩා අපේ මයියා ගානට ගේන්න පුලුවං චරිතයක්........
-ඇයි මේක පාලකයොන්ට, Couch ට එහෙම තේරෙන්නැත්තේ??????</t>
+          <t>iphone 12mini,12,12 pro,12 pro maxල්ල</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>UCCaxozFq49_yNRCLegDo6nw</t>
+          <t>UCQhIZCQRAr3L1D8khdmDYQQ</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ශ්‍රී ලංකා ක්‍රිකට් තවත් කැපිල්ලක්..</t>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2021-01-29T15:23:43Z</t>
+          <t>2020-12-01T11:37:01Z</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2021-01-29T15:25:39Z</t>
+          <t>2020-12-01T11:37:01Z</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BHhl75a5bks</t>
+          <t>wExrFbaz-Z4</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021-01-29T14:34:46Z</t>
+          <t>2020-11-28T01:30:04Z</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>UgzqOzLn0X3M6LT2tkx4AaABAg</t>
+          <t>UgwGrv21n3hH4pbEYYd4AaABAg</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>මේමයි..... වැඩ්ඩෙක් නං chance අනිවා දෙන්න ඕන.... දක්ශතා අතර ඉන්න වෙලාවේ chance නොදී නං වැඩක් නෑ.......</t>
+          <t>S20 ultra එකද හොඳම iphone12mini එකද හොඳ</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>UCCaxozFq49_yNRCLegDo6nw</t>
+          <t>UCQhIZCQRAr3L1D8khdmDYQQ</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>ශ්‍රී ලංකා ක්‍රිකට් තවත් කැපිල්ලක්..</t>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2021-01-29T15:20:10Z</t>
+          <t>2020-12-01T11:34:10Z</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2021-01-29T15:20:10Z</t>
+          <t>2020-12-01T11:34:10Z</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BHhl75a5bks</t>
+          <t>wExrFbaz-Z4</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2021-01-29T14:34:46Z</t>
+          <t>2020-11-28T01:30:04Z</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ugx5fu2yEbF7Uth9Hsl4AaABAg</t>
+          <t>Ugw2YLX4UYrAc2Fbdjl4AaABAg</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ක්‍රිකට් ක්‍රීඩාව ආරක්ෂා කරන්න හරි ක්‍රීඩකයන්ව තරග සඳහා සහභාගී කරවීමේ අරමුණින් තමයි මොවුන්ව මේ ආකාරයෙන් නොසලකා හරින්නේ.</t>
+          <t xml:space="preserve">12 mini </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>UCx3W86QCpSsPtwVAcI0vGcA</t>
+          <t>UCo2eaYxf8viO5pWONC40xQw</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ශ්‍රී ලංකා ක්‍රිකට් තවත් කැපිල්ලක්..</t>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2021-01-29T15:03:03Z</t>
+          <t>2020-11-30T20:05:20Z</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2021-01-29T15:03:03Z</t>
+          <t>2020-11-30T20:05:20Z</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BHhl75a5bks</t>
+          <t>wExrFbaz-Z4</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021-01-29T14:34:46Z</t>
+          <t>2020-11-28T01:30:04Z</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ugzu9cCzhlcrvobfVXV4AaABAg</t>
+          <t>Ugx6sE5x0Uit8ivzNEh4AaABAg</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ඒක නං ඇත්ත වෙනදටත් සෙල්ලම් කරන කට්ටිය එළිය ඉන්නවා කියලා අපිටත් තේරෙනවා ඒත් මට හිතාගන්න බැරි</t>
+          <t>හිඟන කාලයක්....12එකක් ගත්තා....ලන්කාවෙන්නම් නෙමෙයි...ලංකාවේ ගත්තොත් පාරේ තමයි...30000ක් අමතරව ගෙවන්න ඔනේ....ලංකාවේ...</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>UCATvMHO5EQ7LJozgrR4RYmQ</t>
+          <t>UC2O-goBeXAr7XshQLeDslMA</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ශ්‍රී ලංකා ක්‍රිකට් තවත් කැපිල්ලක්..</t>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2021-01-29T14:53:41Z</t>
+          <t>2020-11-30T17:50:52Z</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2021-01-29T14:53:41Z</t>
+          <t>2020-11-30T17:50:52Z</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BHhl75a5bks</t>
+          <t>wExrFbaz-Z4</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021-01-29T14:34:46Z</t>
+          <t>2020-11-28T01:30:04Z</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Ugz_wx-oufFe_q9-Wfh4AaABAg</t>
+          <t>UgwC7qH3phv0Q2VRVj14AaABAg</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ආදරෙයි  චැනල් එක⁣ට</t>
+          <t>අනෙ chanux  අයියෙ මටත් i pone මොකක් හරි අරන් දෙන්නකො හලො ඔයා ලග ගොඩක් පොන් තියනවනෙ එකක් දෙන්නකො</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>UCHGhUmNcgw_5wF85ZiaGfsg</t>
+          <t>UCOY1PbQ5dLQFR_zIr4VTihg</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ශ්‍රී ලංකා ක්‍රිකට් තවත් කැපිල්ලක්..</t>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
         </is>
       </c>
       <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2020-11-30T08:12:44Z</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2020-11-30T08:12:44Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ugy2isuxYZflvHIohVp4AaABAg</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>පුලුවන්නම් මට subscribe 10යක් ගන්න උදවු කරන්න..ලොකු උදවුවක්..පුලුවන්නම් විතරක් මාව subscribe කරන්න..</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>UCFGuM1nuW_EcoXVbG3ffieA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2020-11-30T05:48:19Z</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2020-11-30T05:48:19Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>UgzsRsS64a0mNCPVxYR4AaABAg</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>අයියෙ paypal account එකක් හදාගන්න විදිහ වීඩියෝ එකක් දාන්නකො..
+මෙහෙම වීඩියෝ එකක් ඕනෙ කියන අය ලයික් දාන්න..</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>UCRMGSdlqUR1pLVvj58izEMQ</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2020-11-29T18:58:25Z</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2020-11-30T12:00:18Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ugy5M1VjAifV_4vMCKp4AaABAg</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>අලුත් iphone පිටරට සිට ලංකාවට එන කෙනෙක්ට රැගෙන විත් පාවිච්චි කරන්න පුලුවන්ද</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>UCIJlFlg5xq_r9XRql10K_5A</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2020-11-29T18:20:05Z</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2020-11-29T18:20:05Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>UgyMVBSlVs5-TzA7BVR4AaABAg</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20k more 🤭🤭</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>UCyLF15C4-BnIVmzx4Cbnpjw</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2020-11-29T17:27:19Z</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2020-11-29T17:27:19Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>UgybHwTMcnk6j_K-yOV4AaABAg</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Beats flex blutooth headset එක ගැන රීවීවු එකක් කරන්න</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>UCu1hGbusIJBUhW02Tpe9J1g</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2020-11-29T14:26:21Z</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2020-11-29T14:26:21Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ugw5k9IzVkmrTMA0AMF4AaABAg</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4 tama </t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>UCVRa71JOW9B3uNy3MSJOAfA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2020-11-29T14:10:15Z</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2020-11-29T14:10:15Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>UgwQfySwSoNvKJdWmBl4AaABAg</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>සබ්ස්ක්‍රයිබ්,ව්වුසස්,ලයික් මදිද?/ ඔයාගේ චැනල් ඒකට සාර්ථකව සබ්,ව්වුස්,වොච්ටයම් සතියෙන් ගන්න මේ ව්ඩියෝ ඒක බලන්න , සුපිරි ඇප් ඒකක්
+https://youtu.be/Di-V3h_kS30
+මේව්ඩියෝ ඒකට ව්වුස් ගන්න නෙවෙයි කියන්නේ . ඒ චැනල් ඒක මගේ නෙවෙයි ඔයාලාගැන හිතලා මම කියන්නේ🤑</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>UCEqew0TX5wm2E44ZVd2UcKw</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2020-11-29T07:06:09Z</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2020-11-29T07:06:09Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>UgyQo96D-Me88L239mh4AaABAg</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1milion වලදි තෑගි හම්බවෙයිද</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>UCl4lx4GjIaiBN35IAZLebEQ</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2020-11-29T07:02:29Z</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2020-11-29T07:02:29Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>UgyC9COmIcHvsoyb2Vd4AaABAg</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>iPhone 12 pro</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>UC7lm9bTMyua26UZFdg7lH5A</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2020-11-29T01:53:47Z</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2020-11-29T01:53:47Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>UgwHnEXN2u1vq2-rnsl4AaABAg</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>වකුගඩුව ඔයා ලෑස්තිද</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>UCoe6nbCGby_Q8XeBwCzdE6Q</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2020-11-29T00:35:15Z</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2020-11-29T00:35:46Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ugy1AISC089sx09G-gh4AaABAg</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>මම ඇමරිකාවෙ ගත්ත එකට ටැක්ස් එක 87 ක් වැදුණා. ඒත් ලංකාවෙ ටැක්ස් එක එකතු කරලා වෙන්නැති මේ ගණන් කියන්නෙ. මං ගත්තු iPhone Pro Max 512 එකට 1399 + 87 tax USD ගෙව්වෙ. MagSafe charger 39$, headphones 29$. AirPods free ලැබුණෙ නැහැ. 
+ලංකාවට යැව්වා FedEx හරහා එකක්. යවන්න 80$ ගියේ. නමුත් කස්ටම් එකෙන් ගත්තා 53දාහක් ලයිසන් එකකටයි ෆෝන් එක රිලීස් කරන්නයි. ඒ මෝඩකම කරන්න එපා වෙන කවුරුවත්. මිනිස්සුන්ට කන්න නැතුව ඉන්න කාලෙ එච්ච⁣ර ටැක්ස් ගහන එක හරිද කියලා ඔයාලම තේරුම් ගන්න. හොඳම දේ ඇමරිකාවෙ හෝ පිටරටක ඉන්න කෙනෙක් හරහා එයා එනදවසක ගෙන්නගන්න එක. ෆෝන් එක ඔරිජිනල්ද කියලා බයකුත් නෑනෙ. iPhone 12 Pro Max unavailable කියපා වැටුණා genxtstore එකේ. ගාණ 374,990 LKR. ඇමරිකාවට වඩා ලක්ෂයක් වැඩියි. ටැක්ස් අතෑරියම bulk order එක්ක මේ විකුණන අයට යම් සුළු ලාභයක් ඇති.</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>UCRNyIDUZT2zoPqzkYB8GZgQ</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2020-11-28T23:55:53Z</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2020-11-28T23:55:53Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>UgwzTnNNWrrEPZY7JIB4AaABAg</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>මෙතන අඩුවෙන් දෙනවා කියන එක මුසාවක්. ඒ ඇඩ්වල හැටි</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>UCRNyIDUZT2zoPqzkYB8GZgQ</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2020-11-28T23:40:17Z</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2020-11-28T23:40:17Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ugwu5h2qAijz2L_ryq54AaABAg</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chanux අයියේ ෆෝන් එකක් දෙන්නකෝ. . Please </t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>UC3xvNhlWoErfgk6OFrQ3AyQ</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2020-11-28T20:41:01Z</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2020-11-28T20:41:01Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ugx32LHbeLP8QrGGLxd4AaABAg</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ගන්න සල්ලි නැති උනත් ආසාවෙන් බැලුවා </t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>UCYmd52Jxh6H6_O_UzHp7-0g</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2020-11-28T19:22:41Z</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2020-11-28T19:22:41Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>UgyBsffaLFNovxXdvGp4AaABAg</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">මෙ විඩියෝ එකෙන් 1 million ගන්නවාමයි chanuxbro </t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>UCYmd52Jxh6H6_O_UzHp7-0g</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2020-11-28T19:21:55Z</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2020-11-28T19:21:55Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>UgzEVAc-SbG-dcf-iah4AaABAg</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">iPhone 12 mini 64gb   $699 = 185*699= Rs.130k
+Actual price 185k so 55ktax for 130k phone? </t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>UCU_BqbQhGbQxWRXePshc3jw</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2020-11-28T18:59:57Z</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2020-11-28T18:59:57Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ugx9Lk9EchqIJtpup094AaABAg</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Chanux අය්යගේ මුල්ම වීඩියෝ එක 12 years ago 19 k views</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>UCV-FR4153T8C6axcD1L3vjg</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2020-11-28T18:47:51Z</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2020-11-28T18:47:51Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ugx_hcm403h4zMDE4WR4AaABAg</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>අපිවත් subscribe කරගෙන යමුකො යලුවො</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>UCX7Vo7txybFxuyNgD5_NvvA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2020-11-28T16:15:31Z</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2020-11-28T16:15:31Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ugw6f7dM1takEIUaLNt4AaABAg</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>සබ් ඔන අය මේතනට</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>UCdTJ1oZhM6jv-SGxILF6duw</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2020-11-28T16:03:38Z</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2020-11-28T16:03:38Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>UgyZf6UsolD0h4T6B3t4AaABAg</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>ලක්ශ 3 ක් තියේ නම් ඕක ගන්නේ නෑ</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>UCHUvXGHgKlYFKZa18FRpaSg</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2020-11-28T15:56:00Z</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2020-11-28T15:56:00Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>UgxjptgZa-H_KKpGIEt4AaABAg</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>අපේ පැත්තටත් එන්න</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>UCdTJ1oZhM6jv-SGxILF6duw</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2020-11-28T15:51:19Z</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2020-11-28T15:51:19Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>UgzmG_Y-9pL6NnsZn9B4AaABAg</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ඕකක් ගන්ඩ වකුගඩුවක් විකුනන්ඩ වෙයි </t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>UC024Nzjb1IVxRZK2WpWCMAQ</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2020-11-28T15:25:29Z</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2020-11-28T15:25:29Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>UgzZP_qod7v-lVTB4ut4AaABAg</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>මම න්ම  කැමති iphone 12 pro max එකට</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>UCrqr_a5PCjhCbrbt2m_Dpmg</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2020-11-28T13:19:35Z</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2020-11-28T13:19:35Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>UgyIp7KMLa0O1ymbO1l4AaABAg</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Iphone 12 එකේ touch වෙන්නෙ නැති issue එකක් තියනවා කියන්නෙ ඇත්තද?</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>UCS3EVLVVl_3sOuycT7GVSGg</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2020-11-28T12:43:13Z</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2020-11-28T12:43:13Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>UgyHpY5wKOO82L_4shl4AaABAg</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>මුන්ට 4n answer කරන්න කියන්න බැරිද #Chanux_Bro</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>UCmWha-ZmozxDiF-xgG2QFDQ</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2020-11-28T12:00:03Z</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2020-11-28T12:00:03Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>UgyAwn2C2faTFTHQ9U14AaABAg</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>උබ නම්කිසි හිතක් පපුවක් නැතිමනුස්සයෙක්.මෙ ලන්කාවේ මෙ තියන කොරොනා සිටුවේශන් එක නිසා මිනිස්සු කී දෙනෙක් කන්න බොන්න නැතුව ඉන්නවාද ?උබඑහෙම ත්ත්වයක් තියෙද්දිත් උබට apple phone පිස්සුව? යකො ! Pre-order කර කර කර ඉන්නෙ නතුව දුප්පත් මනුස්සයෙක්ට  udw krapan!</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>UC4yt3gK3no5R_48IGiaJnwA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2020-11-28T11:16:43Z</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2020-11-28T11:16:43Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>UgwtJv2tB_EPaipMJRR4AaABAg</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>සල්ලි තිබ්බනම් pro max  තමා ගන්නෙ.price  සහ අනිත් හැ මදේම බලනකොට. ඒ උනාට no  Enough money</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>UCNtqEKmw7qdRjQ-74o69VYA</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>2</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2020-11-28T10:32:32Z</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2020-11-28T10:32:32Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Ugy4pd40BscKInWWihN4AaABAg</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>මොනවා හම්බුනත් phone එකත් එක්ක charger එක හම්බු වෙනවනම් තමයි හොද......</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>UCnUu9bz9-QUuGS1VALr9rfA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2020-11-28T09:51:40Z</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2020-11-28T09:51:40Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>UgxJYDI6wtGwYsgaCtR4AaABAg</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">හොඳ වෙලාවට මේ Video eka damme. දැන් ඕක ගන්නත් epi මං </t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>UCCTh1YfOSgmAw3x2l5tR1FA</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2020-11-28T09:49:39Z</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>2020-11-28T09:49:39Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>UgyPpEXVOfOizhq8BSR4AaABAg</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">හොඳ වෙලාවට මේ Video eka damme. දැන් ඕක ගන්නත් epi මං </t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>UCCTh1YfOSgmAw3x2l5tR1FA</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2020-11-28T09:49:33Z</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>2020-11-28T09:49:33Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Ugx6RafpdfeFHiQQLHF4AaABAg</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Huawei ජංගම දුරකතන ලෝකය උඩු යටිකුරු කරයි.දැන් ඔබට ඔබේ ජංගම දුරකතනයෙන්ම කොරෝනා තිබේදැයි පරීක්ෂා කර ගන්න පුලුවන්.සම්පූරන වීඩියෝ එක පහලින්..
+https://youtu.be/4OUOj_4iI7s</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>UC_W7-jPdOuHA4R1G7TRXuMQ</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2020-11-28T09:08:20Z</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>2020-11-28T09:08:20Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>UgzkGz_tbNkJPwh50Tt4AaABAg</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>ලක්ශ 3කට තව ලක්ශ 3දාල පොඩි ගේ පොඩ්ඩක් හදා ගන්නවා.</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>UCuK4Kt0Wiuy3d7mcY8k-HXg</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2020-11-28T08:56:08Z</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>2020-11-28T08:56:08Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Ugw4ULH9rfjGJ5i3Reh4AaABAg</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>චනුක්ස් අයියාගේ විඩියෝ බලන කට්ටිය මාවත් subscribe කරලා සප් එකක් දෙන්න</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>UCiaAvLZOzPxabK-b3giI75w</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2020-11-28T08:48:20Z</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>2020-11-28T08:48:20Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>UgxViabMYuZyg3eXkut4AaABAg</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>12 Pro Max එක ගන්නවට වඩා හොදයි gaming pc එකක් හදාගන්න එක</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>UCifagwykI_yzX0MAXw-tERA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2020-11-28T08:41:42Z</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>2020-11-28T08:41:42Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>UgxOSMj_LtabQ4K6Y0Z4AaABAg</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>bro ඔය නම්බරවලට කෝල් ගත්තට වැඩ කරන්නෑනෙ swich off කියල busy කියල වැටෙනව pre order
+කරන්නත් බයයි</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>UCH64LaPO6beaKeDVtIwly1A</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2020-11-28T08:11:54Z</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>2020-11-28T08:11:54Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>UgwMoJw-bdXQTA1tfKt4AaABAg</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>හම්මෝ ඒවා ගාන අඩුයි නෙ බන් 🤣🤣</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>UCK8aTIz_ntpNapASTIrLotQ</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2020-11-28T08:07:19Z</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>2020-11-28T08:07:19Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>UgxYi8DnaObyVxPwr7R4AaABAg</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>එතකොට අපි කලින් ගත්ත ඒවා official නැද්ද?</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>UCUEh0M9hM60PdKOYt4aQmzQ</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>2020-11-28T07:54:31Z</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>2020-11-28T07:54:31Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Ugw_eKTiL62EC728zwB4AaABAg</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>යකෝ උඹට ඕව 6,5 ගන්න සල්ල තිබ්බට පිටිට A 31 එකක් ගන්නවත් සල්ල නෑ. තිබ්බත් ඔය වගේ තේරුමක් නැති ඒවට වියදම් කරන්නේ නෑ</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>UC9ypybj525qXgKThgl5mPTg</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2020-11-28T07:35:59Z</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>2020-11-28T07:35:59Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>UgzExOAD1QDzae4IxvZ4AaABAg</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Sponsorship වලට ads වලින් කියක් විතර හොයාගන්න පුලුවන්ද?</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>UCwOnboG5srv_IxSM0OSSV2g</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>2020-11-28T07:31:03Z</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>2020-11-28T07:31:03Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>UgyY6L6MlH733E5_nZ94AaABAg</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Huawei nova 7se එක ගැන Video එකක් කරේ නෑ නේ </t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>UCAuLQhENw2x4q5K389H7ujQ</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>2020-11-28T07:18:35Z</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>2020-11-28T07:18:35Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>UgzzN0MY2Bgc-Wv_5Nl4AaABAg</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Iphone 12 </t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>UCAuLQhENw2x4q5K389H7ujQ</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>2020-11-28T07:17:08Z</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>2020-11-28T07:17:08Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>UgzDKmSZ-Jf1KVI4oc14AaABAg</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>12 Pro Max</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>UC0WV_j4SPMWsmP2eeTqnpuw</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>2020-11-28T07:07:15Z</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>2020-11-28T07:07:15Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>UgyADuKQn9kTVSL6dM94AaABAg</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>150% විතර TAX ඇති</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>UC0WV_j4SPMWsmP2eeTqnpuw</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>2020-11-28T07:06:32Z</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>2020-11-28T07:06:32Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Ugzgso8EGTS7H6FpYN14AaABAg</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chanuz bro මේ වගේ හීන දෙන්න අපේ රටේ කට්ටයට එතකොට තමයි අපේ කට්ටයට හීනයක් ඇවිල්ලා ඒ හීනෙ ජය ගන්න හිතෙන්නේ. ඒ තකොට තමයි අපේ රට දියුණු වෙන්නේ.. 
+Thanks bro me vage hina ape avnta dena ekata </t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>UC5l3lf7i6R8okLSDa83FuBw</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>8</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>2020-11-28T06:39:24Z</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>2020-11-28T06:39:24Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>UgyN3sPoEHnPxulZztJ4AaABAg</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Ftt අයියෙ iphone 12 pro max එක තමා කැමතිම එක</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>UCWzE3aCo9iE-LVfk4xSOONw</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>2020-11-28T06:34:02Z</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>2020-11-28T06:34:02Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>UgyaAJ67uGtye_Ske994AaABAg</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>12 pro max</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>UC4aBBZm-RVjmHzFHNIzLQUw</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>2020-11-28T06:31:50Z</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>2020-11-28T06:31:50Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>UgxsDKAx1g3WrLgUztd4AaABAg</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>මේවා හීන අරව මේවා කියන උන් කාලකන්නි. උබල මහන්සි වෙලා වැඩ කරනවා නම් ඇපල් නෙවෙයි BMWත් නතිං.</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>UCIVBUFPv3OM5xT7S_aUWGtw</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>2</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>2020-11-28T06:31:46Z</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>2020-11-28T06:31:46Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>UgyWLjV4fhjUVqvrL4x4AaABAg</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>ඔවා ඉතින් අපිට හින තමා</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>UCSjt2YdbNDcWCpK5pvzgjKg</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>2020-11-28T06:25:21Z</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>2020-11-28T06:25:21Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Ugw_A_AHT8fqWyXHEAt4AaABAg</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12 pro </t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>UCYMFjscc5homxrh42TgNm7Q</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>2020-11-28T06:04:22Z</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>2020-11-28T06:04:22Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Ugy3mkcth4AMv5Qa-zV4AaABAg</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ආස නම් pro max. Phone එකක් ගන්න 35,000ක් හොයාගන්න ඕනා මුලින්ම 
+ 22K more </t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>UCmlvqMD6B_pLTPY--qCxpGA</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>2020-11-28T05:55:31Z</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>2020-11-28T05:55:31Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Ugym2kGJv-rU8rj_Vx54AaABAg</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>තව ලක්ෂ එකහමාරක් හොයපන්කෝ දැන්...</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>UCjKmwxUtELu7HrlqjyQYLmg</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>2020-11-28T05:44:19Z</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>2020-11-28T05:44:19Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>UgxHc-KfbduZ0aydPTx4AaABAg</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">45 චනුක්ස්ගෙන් හාටි හිගන්නන් 
+40 සබි හිගාන්නන් 
+14 ලයික් හිගන්නන් 
+1 වීඩියෝ එක ගැන </t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>UCb1MTP9eF9Fzt83UtW9BY8A</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>4</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>2020-11-28T05:10:13Z</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>2020-11-28T05:11:33Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Ugw9t3K-NmF-ZIa-y754AaABAg</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>අම්මෝ යකෝ ලංකාවේ ගනන් කිවුවා  🤣🤣 
+12 mini 64gb SLR,184,990
+12 mini 64gb මෙහේ 150,040
+12 pro max 128gb SLR,294,990 🤣
+12 pro max 256gb මේ ගත්තොත් 259,010 
+ඔච්චර ගනන යකෝ මෙවාට එච්චරටම බදු කෙලිනවද 🤣 නැත්නම් අර ෆ්‍රී දෙන ඒවගේ ගනන් එක්ක වෙන්න 🤣
+ගොඩ යන්න ඕන නම් ජීවිතය විදින්න ඕන නම් රට පලයල්ලා කොල්ලනේ ලංකාවේ කාලකන්නී වෙන්නේ නැතුව . ලංකාව තව අවු.20 ගියත් ඔය විදියටම තමා තියෙන්නේ</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>UCB_np6_m2YtBTxwVYYrwUVA</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>2020-11-28T05:01:59Z</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>2020-11-28T05:05:11Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>UgwsP9274nCMQJxWvbN4AaABAg</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">සැබෑ නොවන හීන </t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>UC9MVw9Dp4Qln6o1zS8y9idA</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>2020-11-28T05:00:56Z</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>2020-11-28T05:00:56Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>UgwOQ7PkhfqJ7tkQDI14AaABAg</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>බලා සැනසේමි නෙලාගනු බැරි apple 12 pro සිහිනේඅයියේ</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>UC0v0P_OqpqGKnR6wfQ0AG6g</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>2020-11-28T04:53:05Z</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>2020-11-28T04:53:05Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Ugy1_7HRNe001CWPXN54AaABAg</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Chemistry හරියට ඉගෙන ගන්න අපේ channel ekata Enna.  පසුගිය විභාග ගැටළු සාකච්ඡාව. සරලව විභාග ගැටළු විසඳීමට විශේෂ ක්‍රම..chemistry Hari lesiy..අපේ channel eka</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>UCVu4Vm2g2ZgHUcN0NQxB-LQ</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>2020-11-28T04:31:24Z</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>2020-11-28T04:31:24Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Ugz3HUv-xupPBCl2TPt4AaABAg</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ඔක්කොම authorized ලා ටික කියයි කියලා හිතන් ආවේ. </t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>UCmUzjLfKe9Lo9DZANewPiHw</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>2020-11-28T04:27:14Z</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>2020-11-28T04:27:57Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Ugzli7IL1v5UVKHXKCx4AaABAg</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>හීන තමා apple කියන්නෙ</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>UC8RHdWyI4PpSrXc7MFfKIog</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>2020-11-28T04:18:13Z</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>2020-11-28T04:18:13Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Ugw64xcbzcWG1DTbnch4AaABAg</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>මෙවා ගන්න එක අපටනම් හින තමයි අයියෙ</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>UCLuTYD0abyS8KD780EYWMEw</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>2</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>2020-11-28T04:11:24Z</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>2020-11-28T04:11:24Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>UgwZ08JKHcKrg9urDL14AaABAg</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>උබට 1milon ගහන්න ආසාවක් තියෙනවනම් ඔය ගත්තු phone 4න් 3ක් වත් දෙන්න ඕනේ</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>UClz5mIijftaecQoQb909RHw</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>2020-11-28T03:57:23Z</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>2020-11-28T03:57:23Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>UgyqEOij6EhBSbwuEc54AaABAg</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>කොහෙන්ද බන් ඔච්චර සල්ලි phone  එකක් වෙනුවෙන් ..</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>UCU-Jn17tpe2B-rPVxGwnfdA</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>2020-11-28T03:52:13Z</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>2020-11-28T03:52:13Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>UgwRhn7jPb4h4esHDeh4AaABAg</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>අබාන්ස් නේද ගෙන්නුවෙ</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>UC0xwsNXvG7LlnLYIOVTGvTQ</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>2020-11-28T03:47:03Z</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>2020-11-28T03:47:03Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>UgxjJFU4AtByyKE5jzF4AaABAg</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1milion subscribe ගත්තාම පාටියක් දාමු ආ</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>UC5bDoJtiE1hQXQ2mFFTgmxg</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>27</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>2020-11-28T03:33:17Z</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>2020-11-28T03:33:17Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>UgxGUuY-JSqZZAhOKjd4AaABAg</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>අයියේ  මම youtube  update කරා කිසිම දෙයක් තේරෙන්නෙ නෑ අනේ අලුත් youtube update  එක ගැන වීඩියෝ එකක් කරන්නකෝ..........</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>UCuYRIXV81nzBGgEMO47_iFg</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>2</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>2020-11-28T03:33:15Z</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>2020-11-28T03:33:15Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Ugzirtj5pgxbZ9uHjdR4AaABAg</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">අයියට බැරිද ගේම් එකක් වගෙ තියලා පෝන් එකක් දෙන්න </t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>UCZExOEoGrfA2jh44uJ9P00Q</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>1</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>2020-11-28T03:32:55Z</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>2020-11-28T03:32:55Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Ugz3VahS4xAD__EO6hF4AaABAg</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>තව 22 subscribers එනකම් බලන් ඉන්නේ . Fb එකේ share කරා අද අනිවා 1M ගහමු 🥰🤞</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>UCXhfPAoBCaGjfJqQHn4yrxQ</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>2020-11-28T03:18:41Z</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>2020-11-28T03:18:41Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>UgwLyKjygXD3gtH24Bx4AaABAg</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>කවුද බං ඔචිචර සල්ලි දීල ඕව ගන්නෙ</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>UCbsszrOz9k726IIiIpmMNLQ</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>2020-11-28T03:17:09Z</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>2020-11-28T03:17:09Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>UgzdKOrDWWnsW2ugEgJ4AaABAg</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I phone 12 හීනයක් </t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>UC6M463JpPS4d9ahz7fqX-zQ</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>2020-11-28T03:06:38Z</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>2020-11-28T03:06:38Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>UgxrOzbZJZGrvW8s5Ah4AaABAg</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>තව ටිකයි M1 ගහන්න chunux අයියේ ......... මිලියන ගහන් කන් බලන්න ඉන්න අය මේ පැත්තට්
+‍යලුවනේ මවත් සබ් කර්ලා උදව්වක් දෙන්න ලොකු උදව්වක් ..</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>UCMbXrwSNniYTwDrUAUaKiAw</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>2020-11-28T03:03:14Z</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>2020-11-28T03:03:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>UgxDf436eUH6A2KcjtZ4AaABAg</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Programming කරන්ට කැමති අය කවුද මෙතන ඉන්නෙ.
+Programming කරන්න,ඉගෙනගන්න ගොඩක්  කැමතියි මම. Programming  අලුත් දෙයක් ඉගෙන ගත්තම ඒකෙන් කරන්න ගොඩක් දේවල් ඔලුවට එනව. Programming දිගට කර කර ඉන්න කොට එපාත් වෙනව. ඒත් ආපහු programming කරන්න හිතෙනව.
+Programming video එකක් ගේන්ටකො.</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>UCJ2xbrrKiMomv3UUrTYWBGQ</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>2020-11-28T03:02:54Z</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>2020-11-28T03:02:54Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>UgwGSN8ms9TrewaCCrx4AaABAg</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>මෙන්න නම්බර් එක 0112500336 කෝල් කරලා බලන්න.</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>UCETxOvOv9_44-CUzsPlzyxQ</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>149</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>2020-11-28T03:01:57Z</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>2020-11-28T03:01:57Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Ugx9wsEmsu0rJxFjMox4AaABAg</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>චානුක්ස් බ්රො ඔයාලඟ  ps4 කැමරාවක් තියනවාද</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>UC0kFiMvUCmhP3rBV8Tfu0-g</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>2020-11-28T03:00:34Z</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>2020-11-28T03:02:54Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>UgzRmUkesKc1rq3Iqkx4AaABAg</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Million එක live එකක් ඕන අය මෙහෙට</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>UC9z4RsKLTr3BIEL1PCmd9hQ</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>26</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:58:31Z</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:58:31Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Ugx-zPeujBD9RdL2Cfp4AaABAg</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> video එක එනකන් හිටියේ</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>UCiTCKS7tgh2P7vDqYjB-gPg</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:56:48Z</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:56:48Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>UgwfTouSDYezMrfvxzB4AaABAg</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Data card දාන්න සල්ලි නැද්ද? 
+Sim එක Hutch/Etisalat ද?
+ එහෙම නම් ඔයාටත් unlimited free data ගන්න පුලුවන්. 
+🧡මලින්ම ඔයාගෙ  smart phone ඒකට
+ Cliq  app එක install කර ගන්න. 
+🧡ඊලගට ඔයා ඒකෙ Register wenna.
+🧡ඊලගට වම්පැත්තෙ උඩම ඉරි තුනක් අැති ඒක ටච් කරන්න.
+🧡ඊලගට ඒතන උඩම invite friends කියල ඒකක් අැති ඒක ටච් කරන්න.
+🧡ඊලගට ඒතන පහලම තියනව Redeem invitation කියල ඒක ටච් කරන්න.
+🧡ඊලගට ඒතන මෙන්න මේ Code එක ගහන්න.(මතක අැතුව Capital,Simple හොදට බලලා හරියටම ගහන්න.)
+Code : 45zbbt
+🧡ඊලගට ඊතලය ටච් කරන්න.ඊට පස්සෙ free time plane කියන ඒකට යටින් 6 Hours unlimited කියල වැටෙයි.ඊට පස්සෙ ඔයාට ඒක active කරගන්න පුලුවන්.
+එතකොට ඔයාට ඒ වෙලාවේ ඉඳන් පැය 6ක්  unlimited free data ගන්න පුළුවn</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>UCp9ScklBnxBFZM9UUiEWYmg</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:54:32Z</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:54:32Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Ugy-wj-b9GqzMM_v8H14AaABAg</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>i phone  12 mini වලට තමා කැමති.</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>UC5qxLxnOJYtkz6v0htzfOPA</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>2</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:48:46Z</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:48:46Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Ugy3zQdd3amJGtvH0HZ4AaABAg</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>අයියෙ මටත් එකක් දෙන්නකො.</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>UC5qxLxnOJYtkz6v0htzfOPA</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>1</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:43:53Z</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:43:53Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>UgxytOqIm6BjqbRqFcJ4AaABAg</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>අයියේ i phone 12 pro max 512Gb rom එක තියෙන එකත් ඔය ගානමද</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>UCPqm53nCvzHYIbPqTBRpapA</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:43:25Z</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:43:25Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Ugyf3NUzB3REoolPmyF4AaABAg</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Man 12 mini එක 128 gb ගත්තෙ ලංකාවෙ සල්ලි වලින් 156700 යි .ලංකාවෙ 64 gb eka 189 k වෙනවලු ඉතින් හිතා ගනිල්ලකො ඇයි ලංකාවට එහෙම උනේ කියලා</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>UCfIs3R8bG5zRK7CaAYlTI9Q</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:43:05Z</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:43:05Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>UgxWgiO1RKogGkgn7c54AaABAg</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Api නම් ගත්තො 12 මිනි එක ඒක මරු ගන්න අයට ඒක හොදයි කියනවා මන්🥰🥰🥰</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>UCfIs3R8bG5zRK7CaAYlTI9Q</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:39:13Z</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:39:13Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>UgxGvMFY_7U3FW2yukF4AaABAg</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">අනේ මන්දා.මේවා ගන්න සල්ලිත් නෑ.ඩේට කපාගෙන ඔක්කොම වීඩියෝ එක බලපු අය.
+</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>UCfvdG2-wrvTxbYV08hMEdvA</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:30:53Z</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:30:53Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>UgwuRTi2dvTcFaxf4nl4AaABAg</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">45% - චනුක්ස්ගෙන් හාට් හිගන්නන්
+40% - සබ් හිගාන්නන්
+14% - ලයික් හිගන්නන්
+1% - වීඩියෝ එක ගැන
+</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>UCJPorwyXP29nZW95Gh-nrsw</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>217</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:29:54Z</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:29:54Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Ugyk9QTroK1mlXxOeq14AaABAg</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Apple phone එකේ  clander එකේ apple id hack කරලා කියලා එනවනේ ඔයාලගෙත් එහෙමද pls ලොකු උදව්වක්</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>UC6Jjiopyh_idt9wEUunNOrw</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:22:45Z</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:22:45Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>UgxAMruzFR3gcdZ83zl4AaABAg</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>මේක බලලා වකගඩුව එහේනමි කොල්ලො අපි ගියා🤣</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>UCoFjwGGDfu5A5jDdtfW_irQ</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>33</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:20:25Z</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:20:25Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>UgzIMO4EIz8V4518Kd54AaABAg</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">හිනයක් තමයි අයියේ.... </t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>UCKYyAcVUlk3YxeavVxMAFyA</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>7</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:20:11Z</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:20:11Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>UgwT9DJ6XjTHkAFnwYR4AaABAg</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ඔයලත් මව sb කරන්න .මමත්  sb කරනවා . </t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>UCZCPoJyyNzc79C20UfJswHQ</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>1</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:17:51Z</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:17:51Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>UgxppDc1D9FHhOqGwP94AaABAg</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ඔයලත් මව sb කරන්න .මමත්  sb කරනවා . </t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>UCZCPoJyyNzc79C20UfJswHQ</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>1</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:17:43Z</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:17:43Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>UgwtRq1A-Y1If1G-czd4AaABAg</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>අපිට ඕවා හීන</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>UCIdcggdTzZ0nXuzhKG1Vqzw</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:17:25Z</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:17:25Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>UgyI7rYlFiryWfMzXyh4AaABAg</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>ඔන්න ඉතින් sub කරලා denna5</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>UCP27KzMbgHFm4x1Na68TKMw</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:15:54Z</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:15:54Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>UgwjmmRxfG8tJKP5uMl4AaABAg</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>අපිට කන්න වක්කත් සල්ලි නැ ඉතින් ෆොන් ගහන්නෙ කෙහොමද</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>UCTvZUeyg3SGEjBBsw8tWBOA</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:08:42Z</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:08:42Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>UgxQNuqgSmrnvh5wusF4AaABAg</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>අනේ මම iphone 12 mini  ekak තිබ්බා නම්</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>UCxcb4HOmhA2B0IIdGhKyanA</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:08:25Z</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:08:41Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>UgxtIklc0MhVCe9ef3d4AaABAg</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">අපි ගත්තා වගේ තමා...අයියා ගන්නකෝ.. </t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>UCT4dSgVNXwQJPaYlHz9Nrmw</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:06:06Z</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:06:06Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Ugxk8g_v5KT3jPfCoDx4AaABAg</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://youtu.be/7MJHGe4r12Q
+මේක යනගමන් click කරල බලන්න හොද ද කියල </t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>UC-BPZUUudUxmCCNJsQtZ9Ww</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:05:20Z</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:05:20Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>UgwPZVz2h2Md8Pztf3d4AaABAg</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>විඩියෝ එක මරු</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>UCr6xh2OGXMJFBdiXNdODbYg</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>1</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:04:46Z</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:04:46Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>UgwWNAegy2umVnJXYeZ4AaABAg</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>මම English songs වලට animation videos හදලා දානවා කැමති අය ඉන්නවා නම් මගේ චැනල් එක පැත්තෙ එන්න හොඳයි කියලා හිතෙනවා නම්
+Subscribe  කරන්න.</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>UC9VC94ha3uTguEQWASbmwXg</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:04:31Z</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:04:31Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>UgxUcy_DfE4cIfRbOhl4AaABAg</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>I phone ගන්න සල්ලි නැතත් ඒවට කැමති එවුන් කෝ .</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>UC4V4Onyy42U9XLWbT3sCP0Q</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>1</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:04:24Z</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:04:24Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>UgzFm3_gAgjfx8WFHCd4AaABAg</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">සිහින තිබුනට කෝටියක් අතේ නෑ එක රුපියලක් </t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>UC-BPZUUudUxmCCNJsQtZ9Ww</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>2</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:03:00Z</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:03:00Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Ugy-hLAy4aNd-8NAZGZ4AaABAg</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>i phone එකක් ගන්න බැරුව දුක් විදින අය කෝ........................</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>UCWq_NpTnR-4IR7xqNFSwGUw</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>4</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:00:28Z</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:00:28Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>UgzLOhNDrgeQoEp-ZyR4AaABAg</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>අයියේ ඔයා පාවිච්චී කරන පෝන් එක මොකක්ද කිය්න්නකෝ pls</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>UCPqm53nCvzHYIbPqTBRpapA</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:59:54Z</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:59:54Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>UgymU90p3vSTbWEB4J94AaABAg</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>i phone 12 mini 
+2013 සැප්තැම්බර්  දාපු 5s එක ගත්තේ 2019 ඔක්තෝබර්. 12 mini එකත් 2025 හරි ගන්නවා 🤗</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>UCMzf3bz-Ok--OxDUn2979wA</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:56:45Z</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>2020-11-28T02:09:28Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>UgwHdeSZoZ2JK02pWYh4AaABAg</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Chanux මිලියන ට යන එක ගැන සතුටු වෙන කට්ටිය කො.</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>UC_nJNNE8RIbyiP1QwIAQVKA</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
         <v>6</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-01-29T14:35:51Z</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>2021-01-29T14:35:51Z</t>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:56:05Z</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:56:05Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Ugy37maDCjfNKxMySXR4AaABAg</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Iphone 12pro max එකට කැමතියි.
+සල්ලි තමයි නැත්තෙ. </t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>UCJ2xbrrKiMomv3UUrTYWBGQ</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>3</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:51:22Z</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:51:22Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>UgxQtI_gl3OHI4zAH8Z4AaABAg</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Sub ඕන අය මේ පැත්තට🤟 සබ් කලොත් අනිවාර්යයෙන් සබ් කරනවා!</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>UC-qouj7PEMSq0V5EaTdJlgA</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:51:05Z</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:51:05Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>UgwDW2A58itiEhOPGMJ4AaABAg</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Chanux bro මේ පාර රත්තරන් බොත්ත්ම    ගහනවා කියන උන් මේ කොනට</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>UCtsTFnMTFCsKhyYybLjLw3Q</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>26</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:48:42Z</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:48:58Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Ugwh7p9n4yE9Z2ypqnt4AaABAg</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>තාක්ෂණයට කැමතිනම්      people who like technology are on this side....අනෙ පුලුවන්නම් මට subscribe 10යක් ගන්න උදවු කරන්න...පුලුවන්නම් විතරක් මාව subscribe කරන්න....ලොකු උදවුවක්......</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>UCCQLWsG6LViTcwALxIbznwA</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:44:30Z</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:44:30Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>UgwZa0gbw2MY6HO_xZJ4AaABAg</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>242  එක magen</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>UCRu3wd5FZg86FkjIZh2o5qQ</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>2</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:43:42Z</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:43:42Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Ugw4dmz1Vn8Cw0dRlqJ4AaABAg</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>මාව කරදරයක් නේ  අනේ මට කියන්නකෝ Soft logic එකෙන් ගෙවන්න දෙනකොට Debit card වලට පුලුටන්ද කියල 🤪🤪🤪🤪</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>UCkJj6LxglhHcwHgwDbxZghQ</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:40:44Z</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:40:44Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Ugyu9tot74ta_G0bjLp4AaABAg</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">සල්ලි නැතත් මේක බලනවා අපි </t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>UCgrIh2FUy8kumi7rasXc1ew</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>3</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:40:17Z</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:40:17Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>UgwtrZMdsGzeA_gYCmR4AaABAg</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1M තව ටිකයි...</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>UCBhUAguicC-smr6TwXvu-Ng</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>1</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:39:12Z</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:39:12Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>UgxokDoxVk6_Oc1O09R4AaABAg</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Notification eka ආපු ගමන් බැලුවා</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>UClEhPe7CKrzUhlvYSzC6D4w</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>4</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:39:06Z</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:39:06Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>UgxRBEGC-mNNrqTHX-V4AaABAg</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ඔයා සබ් මිලියනයක් ගත්තොත් යූ ටියුබ් එකෙන් මොනවද හම්බවෙන්නේ </t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>UCRZxhGwizLWJtGAVY1S0W1A</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:38:44Z</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:38:44Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>UgxZ6EWwMqIocU9O5Lp4AaABAg</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">iPhone 12pro 256 graphite </t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>UCKT9Z-eXmGEpA2Ut9rk9bjw</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:38:15Z</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:38:15Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Ugz37qlP2mShGQd9upJ4AaABAg</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>බලා වැලපෙමි ,නෙලා ගනු බැරි අයිපෝන් සිහිනේ</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>UCoYzWiBlGL04cDAl4MyKaPw</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>81</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:37:37Z</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:37:37Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Ugydp_0Z26a_83rQb-J4AaABAg</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chanux bro ට ආදරේ අය මේ කොනට </t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>UCAzBM_PTgQz8Eld43wGSUyw</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>4</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:37:17Z</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:37:17Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>UgwHQwSW4yUS0I-muXB4AaABAg</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>අයියේ iphone 12 mini එක ගැන rivew එකක් ගේන්න</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>UCVFnU9vVgjYNbq25thGwrWA</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>3</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:36:41Z</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:36:41Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Ugwe4g7-mH22rOsPq_54AaABAg</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>වීඩියෝ එක ඉස්සෙල්ලම බළපු අය කෝ</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>UCs9zLJVfkc3DfPYlmF90LYw</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:35:32Z</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:35:32Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Ugz_uuc7eb3kgYjJ5V94AaABAg</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>ඉක්මනින් ම 1M ගමු අයියේ</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>UCGE5jSJQUXeJBmuTZNuTMkQ</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>1</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:34:59Z</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:34:59Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Ugw5zNM3N86Tp6Sb-nF4AaABAg</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>අද පාන්දරම විඩියෝ එක</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>UC2CwnkWIsvHS8X4Uf5w3leQ</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:34:49Z</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:34:49Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>UgwLclaJxmJ58p2fx5F4AaABAg</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">හැමදාම මෙහෙම video දාන්න chanux bro </t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>UCnUtF4iLOI-A7X_NQ43i8IQ</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>2</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:34:37Z</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:34:37Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Ugwd9d6nMfLTsgqQ4iB4AaABAg</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>දාපුගමන් බැලුවා උදේ පාන්දරම🤣</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>UCzXSucxijMYA8alj_yw9ZrA</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>1</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:34:07Z</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:34:07Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Ugx0B_2Zqw9JibNzfD94AaABAg</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>වීඩියෝ එක  සුපිරි .
+ජය වේවා chanux අය්යේ</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>UC3ZgU0Dd7BCDnFKThoy28Bg</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>65</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:33:54Z</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>2020-11-28T07:17:06Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>UgzQpTKJI4d2O9l0VGV4AaABAg</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Chunx 1m ගන්න sup එක දේන උන් මේ කොනට</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>UCoFjwGGDfu5A5jDdtfW_irQ</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>9</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:33:53Z</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:33:53Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>UgwMxdOVTCXYcOlCT2N4AaABAg</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Youtube Channel Link For Subscribe:-https://www.youtube.com/channel/UCqqp_Ej69Cml2ifwlO7UnMQ
+ඕගොල්ලොත් ඉක්මනින්ම "MWS Academy" Youtube Channel එක Subscribe කරලා තියාගන්න.
+මෙම Youtube Online Class සම්පූර්ණයෙන්ම  නොමිලේ  පැවැත්වේ.
+ඕගොල්ලොන්ට මේක සහභාගීවීමට කරන්න ඕන එකම එක දෙයයි."MWS Academy Youtube Channel එක Subscribe කරලා තියා ගැනීම පමණයි.
+ඉහත ලින්ක් එකෙන් youtube channel එක Subscribe කරන්න.
+එහෙනම් නොවැම්බර් 29 වන දිනයේදී අපි Youtube එකෙන් හමුවෙමු.</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>UCSvIVsaSLDgY8YP_CwLyjNw</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:33:43Z</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:33:43Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Ugwe7KndqWwZe60BeuJ4AaABAg</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Youtube Channel Link For Subscribe:-https://www.youtube.com/channel/UCqqp_Ej69Cml2ifwlO7UnMQ
+ඕගොල්ලොත් ඉක්මනින්ම "MWS Academy" Youtube Channel එක Subscribe කරලා තියාගන්න.
+මෙම Youtube Online Class සම්පූර්ණයෙන්ම  නොමිලේ  පැවැත්වේ.
+ඕගොල්ලොන්ට මේක සහභාගීවීමට කරන්න ඕන එකම එක දෙයයි."MWS Academy Youtube Channel එක Subscribe කරලා තියා ගැනීම පමණයි.
+ඉහත ලින්ක් එකෙන් youtube channel එක Subscribe කරන්න.
+එහෙනම් නොවැම්බර් 29 වන දිනයේදී අපි Youtube එකෙන් හමුවෙමු.</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>UCSvIVsaSLDgY8YP_CwLyjNw</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:33:35Z</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:33:35Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>UgwOxqezIuuu-FREo7x4AaABAg</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Notification ආපු ගමන් ආව අය කෝ</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>UCMpqSU0YZz3dux3dpSkv7cg</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>111</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:33:31Z</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:33:31Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>UgxsYxF77HfTvfsKaPp4AaABAg</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>සාඩම්බර නීය දෙවන කමෙන්ට් එක.</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>UCJ3k3BzqBM4_OD2AxsSKH3g</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>2</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:33:30Z</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:33:30Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>UgyEoKhSIsVoSp0bqRR4AaABAg</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    🤚</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>UCAAwYojuu1hJ_iYfjY6LZKw</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:33:28Z</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:33:28Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>UgyXAhD1btGYtQLLJjN4AaABAg</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>ඔන්න කුකුලත් අතේ අරන් ආවා</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>UCbgaOcfM6jBe99MVxwEAsVg</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>26</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:33:20Z</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:33:20Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>UgzfJd43xx7ZmYs4Gp54AaABAg</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>UCVl63cO9GINFuxJifpabROw</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>2</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:32:55Z</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:32:55Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>wExrFbaz-Z4</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:30:04Z</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>UgwPQfM2EARPVD3bDGp4AaABAg</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Chanux ට කැමති අය මගේ channel එක subscribe කරන්න</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>UC44ycGMPX-5x-1ITWscftfw</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Official iPhone 12 Price in Sri Lanka</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:32:52Z</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>2020-11-28T01:32:52Z</t>
         </is>
       </c>
     </row>
